--- a/tietokanta/class_progression/class_progression_Sorcerer.xlsx
+++ b/tietokanta/class_progression/class_progression_Sorcerer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7601D984-0175-48A6-BDEC-DB479FAAB49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FE08E4-059D-434A-A47E-83FE92CD9D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="375" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,9 @@
     <t>Proficiencies</t>
   </si>
   <si>
-    <t>Bloodline</t>
-  </si>
-  <si>
     <t>Sorcerer Spellcasting</t>
   </si>
   <si>
-    <t>Spells</t>
-  </si>
-  <si>
     <t>Skill Feat</t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>Legendary Spellcaster</t>
+  </si>
+  <si>
+    <t>Initial Feat</t>
+  </si>
+  <si>
+    <t>Spell Repertoire</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,13 +463,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -477,10 +477,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -488,16 +488,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -505,10 +505,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -516,19 +516,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -536,10 +536,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -547,16 +547,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -564,10 +564,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -575,16 +575,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,10 +592,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,19 +603,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -623,10 +623,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,19 +634,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -665,19 +665,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,10 +685,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,13 +696,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
         <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,10 +710,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -738,10 +738,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
